--- a/tests/testing_files/child_duplicate_field_error.xlsx
+++ b/tests/testing_files/child_duplicate_field_error.xlsx
@@ -1,43 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5770796F-255F-4352-B591-E027F7F7C35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32273A4A-A6BB-422C-A84E-D7D22368DC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2415" windowWidth="23565" windowHeight="12015" xr2:uid="{74622A20-6192-4670-9736-88E18B0F4086}"/>
+    <workbookView xWindow="4260" yWindow="3285" windowWidth="23640" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#export" sheetId="1" r:id="rId1"/>
-    <sheet name="1export" sheetId="2" r:id="rId2"/>
-    <sheet name="list_field_wierdness" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+  <si>
+    <t>#tags</t>
+  </si>
+  <si>
+    <t>#sample.id;#%child.id=-protein</t>
+  </si>
+  <si>
+    <t>#sample%child.asdf</t>
+  </si>
   <si>
     <t>#ignore</t>
   </si>
@@ -45,7 +37,13 @@
     <t>Slice #</t>
   </si>
   <si>
-    <t/>
+    <t>Parent Subject ID</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>qwer</t>
   </si>
   <si>
     <t>01</t>
@@ -58,45 +56,6 @@
   </si>
   <si>
     <t>02_A1_Spleen_naive_0days_170427_UKy_GCH_rep2</t>
-  </si>
-  <si>
-    <t>Parent Subject ID</t>
-  </si>
-  <si>
-    <t>#tags</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>#sample.id;#%child.id=-protein</t>
-  </si>
-  <si>
-    <t>#sample.id</t>
-  </si>
-  <si>
-    <t>#%child.id=-media-0h;#.dry_weight;#.dry_weight%units=mg</t>
-  </si>
-  <si>
-    <t>#%child.id=-media-3h;#.dry_weight;#.dry_weight%units=mg</t>
-  </si>
-  <si>
-    <t>#%child.id=-media-12h;#.dry_weight;#.dry_weight%units=mg</t>
-  </si>
-  <si>
-    <t>KO labelled_1</t>
-  </si>
-  <si>
-    <t>KO labelled_2</t>
-  </si>
-  <si>
-    <t>#%child.id=-protein;#.asdf</t>
-  </si>
-  <si>
-    <t>qwer</t>
-  </si>
-  <si>
-    <t>#sample%child.asdf</t>
   </si>
 </sst>
 </file>
@@ -146,8 +105,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B24960FB-4346-4AF2-9B12-A33B8A3AD87B}"/>
-    <cellStyle name="Normal 2 3 2" xfId="2" xr:uid="{D56F6827-3D3C-4527-81F8-0E7EBB9F2EBE}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,11 +417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6D9B41-B91D-42D6-AA64-646CAC4C9AB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,46 +433,43 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -523,14 +479,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -541,158 +494,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36191057-3F71-4AD8-8F50-C58DB08F64B8}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>4.2</v>
-      </c>
-      <c r="E2">
-        <v>8.5</v>
-      </c>
-      <c r="F2">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>4.7</v>
-      </c>
-      <c r="E3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F3">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B52A33-11E7-43BD-8CC6-8850B905917B}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>